--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101171.5497759903</v>
+        <v>114897.9079134085</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-81039.39314411809</v>
+        <v>-81039.39314411815</v>
       </c>
       <c r="F6" t="n">
         <v>52060.6068558819</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114897.9079134085</v>
+        <v>-33367.72298817859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>21607827.340757</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053969.636952467</v>
+        <v>3891380.530745857</v>
       </c>
     </row>
     <row r="11">
@@ -22546,76 +22546,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,76 +22625,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,76 +22783,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,76 +22862,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,76 +23020,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,76 +23099,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>983131.6064604467</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>983131.6064604467</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>983131.6064604467</v>
       </c>
     </row>
     <row r="5">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>450601.986294371</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
         <v>55672.21896089023</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-50685.70941604133</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-50685.70941604127</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-50685.70941604122</v>
       </c>
       <c r="E6" t="n">
-        <v>-81039.39314411815</v>
+        <v>-99034.88198341204</v>
       </c>
       <c r="F6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="G6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="H6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="I6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="J6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="K6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="L6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="M6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="N6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="O6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
       <c r="P6" t="n">
-        <v>52060.6068558819</v>
+        <v>34065.11801658801</v>
       </c>
     </row>
   </sheetData>
@@ -27378,76 +27378,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,76 +27457,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,76 +27615,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,76 +27694,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,76 +27931,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>99.52238</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
